--- a/pythonbot/python/config/dota.xlsx
+++ b/pythonbot/python/config/dota.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\罗魏\Desktop\python\dota\pythonbot\python\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C9E34-887E-4210-8D1E-BE24C6AED82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B4152-4CBD-4CBF-9FF7-A7AB090A5976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="4305" windowWidth="17085" windowHeight="8565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dota_match_list" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="matchData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F471D6D2-DC26-4D2E-8519-3431BC71FA3D}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
